--- a/tools/3cf/3cf-ed1-v1.xlsx
+++ b/tools/3cf/3cf-ed1-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/3cf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9047B8B-DBAA-7A42-A6EC-15BE4E32F7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD84685-6D2B-014C-9563-E20AEEBE86AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1480" windowWidth="34560" windowHeight="20440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="584">
   <si>
     <t>assessable</t>
   </si>
@@ -490,6 +490,9 @@
     </r>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>4.2.2</t>
   </si>
   <si>
@@ -1554,6 +1557,9 @@
   </si>
   <si>
     <t>Mesures de sécurité des systèmes d’information</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Le guide ne spécifie pas comment les mesures doivent être mises en œuvre, car cela dépend de chaque opérateur, mais fait référence à d’autres guides et référentiels de l’ANSSI qui apportent des indications.</t>
@@ -2051,6 +2057,9 @@
   </si>
   <si>
     <t>M40</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -2135,7 +2144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2211,6 +2220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2662,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" zoomScale="187" workbookViewId="0">
-      <selection activeCell="B365" sqref="B365"/>
+    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="187" workbookViewId="0">
+      <selection activeCell="E367" sqref="E367:E405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3712,7 +3722,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -3906,7 +3916,7 @@
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -3916,10 +3926,10 @@
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F82" s="7"/>
     </row>
@@ -3930,10 +3940,10 @@
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F83" s="7"/>
     </row>
@@ -3948,7 +3958,7 @@
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -3964,7 +3974,7 @@
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -3980,7 +3990,7 @@
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -3996,7 +4006,7 @@
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4010,7 +4020,7 @@
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4026,7 +4036,7 @@
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4042,7 +4052,7 @@
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4058,7 +4068,7 @@
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4074,7 +4084,7 @@
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4090,7 +4100,7 @@
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4106,7 +4116,7 @@
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4122,7 +4132,7 @@
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4138,7 +4148,7 @@
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4149,12 +4159,12 @@
         <v>5</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4164,10 +4174,10 @@
       </c>
       <c r="C98" s="12"/>
       <c r="D98" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F98" s="7"/>
     </row>
@@ -4184,7 +4194,7 @@
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4198,7 +4208,7 @@
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4214,7 +4224,7 @@
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="28" x14ac:dyDescent="0.2">
@@ -4230,7 +4240,7 @@
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -4246,7 +4256,7 @@
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4262,7 +4272,7 @@
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -4272,10 +4282,10 @@
       </c>
       <c r="C105" s="12"/>
       <c r="D105" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F105" s="7"/>
     </row>
@@ -4286,10 +4296,10 @@
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F106" s="7"/>
     </row>
@@ -4300,10 +4310,10 @@
       </c>
       <c r="C107" s="12"/>
       <c r="D107" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F107" s="7"/>
     </row>
@@ -4320,7 +4330,7 @@
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -4336,7 +4346,7 @@
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4352,7 +4362,7 @@
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4368,7 +4378,7 @@
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -4384,7 +4394,7 @@
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="28" x14ac:dyDescent="0.2">
@@ -4394,10 +4404,10 @@
       </c>
       <c r="C113" s="12"/>
       <c r="D113" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F113" s="7"/>
     </row>
@@ -4414,7 +4424,7 @@
       <c r="D114" s="18"/>
       <c r="E114" s="18"/>
       <c r="F114" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -4430,7 +4440,7 @@
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
       <c r="F115" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -4440,10 +4450,10 @@
       </c>
       <c r="C116" s="12"/>
       <c r="D116" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F116" s="7"/>
     </row>
@@ -4454,11 +4464,13 @@
       <c r="B117" s="24">
         <v>6</v>
       </c>
-      <c r="C117" s="12"/>
+      <c r="C117" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
       <c r="F117" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -4468,11 +4480,13 @@
       <c r="B118" s="24">
         <v>7</v>
       </c>
-      <c r="C118" s="12"/>
+      <c r="C118" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
       <c r="F118" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -4482,11 +4496,13 @@
       <c r="B119" s="24">
         <v>8</v>
       </c>
-      <c r="C119" s="12"/>
+      <c r="C119" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>
       <c r="F119" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -4496,11 +4512,13 @@
       <c r="B120" s="24">
         <v>8</v>
       </c>
-      <c r="C120" s="12"/>
+      <c r="C120" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="D120" s="14"/>
       <c r="E120" s="14"/>
       <c r="F120" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -4510,11 +4528,13 @@
       <c r="B121" s="24">
         <v>7</v>
       </c>
-      <c r="C121" s="12"/>
+      <c r="C121" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="D121" s="14"/>
       <c r="E121" s="14"/>
       <c r="F121" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -4524,11 +4544,13 @@
       <c r="B122" s="24">
         <v>7</v>
       </c>
-      <c r="C122" s="12"/>
+      <c r="C122" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
       <c r="F122" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -4538,11 +4560,13 @@
       <c r="B123" s="24">
         <v>7</v>
       </c>
-      <c r="C123" s="12"/>
+      <c r="C123" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="D123" s="14"/>
       <c r="E123" s="14"/>
       <c r="F123" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -4552,10 +4576,10 @@
       </c>
       <c r="C124" s="12"/>
       <c r="D124" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F124" s="7"/>
     </row>
@@ -4572,7 +4596,7 @@
       <c r="D125" s="14"/>
       <c r="E125" s="14"/>
       <c r="F125" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -4582,10 +4606,10 @@
       </c>
       <c r="C126" s="12"/>
       <c r="D126" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F126" s="7"/>
     </row>
@@ -4600,7 +4624,7 @@
       <c r="D127" s="14"/>
       <c r="E127" s="14"/>
       <c r="F127" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -4616,7 +4640,7 @@
       <c r="D128" s="14"/>
       <c r="E128" s="14"/>
       <c r="F128" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -4632,7 +4656,7 @@
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
       <c r="F129" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -4648,7 +4672,7 @@
       <c r="D130" s="14"/>
       <c r="E130" s="14"/>
       <c r="F130" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -4662,7 +4686,7 @@
       <c r="D131" s="14"/>
       <c r="E131" s="14"/>
       <c r="F131" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -4678,7 +4702,7 @@
       <c r="D132" s="14"/>
       <c r="E132" s="14"/>
       <c r="F132" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -4694,7 +4718,7 @@
       <c r="D133" s="14"/>
       <c r="E133" s="14"/>
       <c r="F133" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -4705,12 +4729,12 @@
         <v>6</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D134" s="14"/>
       <c r="E134" s="14"/>
       <c r="F134" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -4722,10 +4746,10 @@
         <v>32</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F135" s="7"/>
     </row>
@@ -4756,7 +4780,7 @@
       <c r="D137" s="14"/>
       <c r="E137" s="14"/>
       <c r="F137" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -4772,7 +4796,7 @@
       <c r="D138" s="14"/>
       <c r="E138" s="14"/>
       <c r="F138" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -4788,7 +4812,7 @@
       <c r="D139" s="14"/>
       <c r="E139" s="14"/>
       <c r="F139" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -4804,7 +4828,7 @@
       <c r="D140" s="14"/>
       <c r="E140" s="14"/>
       <c r="F140" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -4820,7 +4844,7 @@
       <c r="D141" s="14"/>
       <c r="E141" s="14"/>
       <c r="F141" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -4834,7 +4858,7 @@
       <c r="D142" s="14"/>
       <c r="E142" s="14"/>
       <c r="F142" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -4850,7 +4874,7 @@
       <c r="D143" s="14"/>
       <c r="E143" s="14"/>
       <c r="F143" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -4866,7 +4890,7 @@
       <c r="D144" s="14"/>
       <c r="E144" s="14"/>
       <c r="F144" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="28" x14ac:dyDescent="0.2">
@@ -4876,10 +4900,10 @@
       </c>
       <c r="C145" s="12"/>
       <c r="D145" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F145" s="7"/>
     </row>
@@ -4908,7 +4932,7 @@
       <c r="D147" s="14"/>
       <c r="E147" s="14"/>
       <c r="F147" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -4924,7 +4948,7 @@
       <c r="D148" s="14"/>
       <c r="E148" s="14"/>
       <c r="F148" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -4940,7 +4964,7 @@
       <c r="D149" s="14"/>
       <c r="E149" s="14"/>
       <c r="F149" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -4956,7 +4980,7 @@
       <c r="D150" s="14"/>
       <c r="E150" s="14"/>
       <c r="F150" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -4972,7 +4996,7 @@
       <c r="D151" s="14"/>
       <c r="E151" s="14"/>
       <c r="F151" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -4988,7 +5012,7 @@
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -5004,7 +5028,7 @@
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -5028,10 +5052,10 @@
       </c>
       <c r="C155" s="12"/>
       <c r="D155" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F155" s="7"/>
     </row>
@@ -5042,10 +5066,10 @@
       </c>
       <c r="C156" s="12"/>
       <c r="D156" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F156" s="7"/>
     </row>
@@ -5056,7 +5080,7 @@
       </c>
       <c r="C157" s="12"/>
       <c r="D157" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E157" s="7" t="s">
         <v>94</v>
@@ -5076,7 +5100,7 @@
       <c r="D158" s="14"/>
       <c r="E158" s="7"/>
       <c r="F158" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -5092,7 +5116,7 @@
       <c r="D159" s="14"/>
       <c r="E159" s="7"/>
       <c r="F159" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -5108,7 +5132,7 @@
       <c r="D160" s="14"/>
       <c r="E160" s="7"/>
       <c r="F160" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -5124,7 +5148,7 @@
       <c r="D161" s="14"/>
       <c r="E161" s="7"/>
       <c r="F161" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -5140,7 +5164,7 @@
       <c r="D162" s="14"/>
       <c r="E162" s="7"/>
       <c r="F162" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -5150,10 +5174,10 @@
       </c>
       <c r="C163" s="12"/>
       <c r="D163" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F163" s="7"/>
     </row>
@@ -5170,7 +5194,7 @@
       <c r="D164" s="14"/>
       <c r="E164" s="7"/>
       <c r="F164" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -5186,7 +5210,7 @@
       <c r="D165" s="14"/>
       <c r="E165" s="7"/>
       <c r="F165" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -5202,7 +5226,7 @@
       <c r="D166" s="14"/>
       <c r="E166" s="7"/>
       <c r="F166" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -5218,7 +5242,7 @@
       <c r="D167" s="14"/>
       <c r="E167" s="7"/>
       <c r="F167" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -5234,7 +5258,7 @@
       <c r="D168" s="14"/>
       <c r="E168" s="7"/>
       <c r="F168" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -5250,7 +5274,7 @@
       <c r="D169" s="14"/>
       <c r="E169" s="7"/>
       <c r="F169" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -5266,7 +5290,7 @@
       <c r="D170" s="14"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -5282,7 +5306,7 @@
       <c r="D171" s="14"/>
       <c r="E171" s="7"/>
       <c r="F171" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -5298,7 +5322,7 @@
       <c r="D172" s="14"/>
       <c r="E172" s="7"/>
       <c r="F172" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -5314,7 +5338,7 @@
       <c r="D173" s="14"/>
       <c r="E173" s="7"/>
       <c r="F173" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -5330,7 +5354,7 @@
       <c r="D174" s="14"/>
       <c r="E174" s="7"/>
       <c r="F174" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -5340,10 +5364,10 @@
       </c>
       <c r="C175" s="12"/>
       <c r="D175" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F175" s="7"/>
     </row>
@@ -5360,7 +5384,7 @@
       <c r="D176" s="14"/>
       <c r="E176" s="7"/>
       <c r="F176" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -5376,7 +5400,7 @@
       <c r="D177" s="14"/>
       <c r="E177" s="7"/>
       <c r="F177" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -5392,7 +5416,7 @@
       <c r="D178" s="14"/>
       <c r="E178" s="7"/>
       <c r="F178" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -5408,7 +5432,7 @@
       <c r="D179" s="14"/>
       <c r="E179" s="7"/>
       <c r="F179" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -5418,10 +5442,10 @@
       </c>
       <c r="C180" s="12"/>
       <c r="D180" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F180" s="7"/>
     </row>
@@ -5438,7 +5462,7 @@
       <c r="D181" s="14"/>
       <c r="E181" s="7"/>
       <c r="F181" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -5454,7 +5478,7 @@
       <c r="D182" s="14"/>
       <c r="E182" s="7"/>
       <c r="F182" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -5470,7 +5494,7 @@
       <c r="D183" s="14"/>
       <c r="E183" s="7"/>
       <c r="F183" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -5480,7 +5504,7 @@
       </c>
       <c r="C184" s="12"/>
       <c r="D184" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
@@ -5491,12 +5515,12 @@
         <v>4</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
       <c r="F185" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -5505,12 +5529,12 @@
         <v>5</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D186" s="14"/>
       <c r="E186" s="7"/>
       <c r="F186" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -5521,12 +5545,12 @@
         <v>6</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D187" s="14"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -5537,12 +5561,12 @@
         <v>6</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D188" s="14"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -5553,7 +5577,7 @@
         <v>5</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D189" s="14"/>
       <c r="E189" s="7"/>
@@ -5568,10 +5592,10 @@
       </c>
       <c r="C190" s="12"/>
       <c r="D190" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F190" s="7"/>
     </row>
@@ -5588,7 +5612,7 @@
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
       <c r="F191" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -5602,7 +5626,7 @@
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
       <c r="F192" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="28" x14ac:dyDescent="0.2">
@@ -5618,7 +5642,7 @@
       <c r="D193" s="14"/>
       <c r="E193" s="7"/>
       <c r="F193" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="28" x14ac:dyDescent="0.2">
@@ -5634,7 +5658,7 @@
       <c r="D194" s="14"/>
       <c r="E194" s="7"/>
       <c r="F194" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -5650,7 +5674,7 @@
       <c r="D195" s="14"/>
       <c r="E195" s="7"/>
       <c r="F195" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -5666,7 +5690,7 @@
       <c r="D196" s="14"/>
       <c r="E196" s="7"/>
       <c r="F196" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -5682,7 +5706,7 @@
       <c r="D197" s="14"/>
       <c r="E197" s="7"/>
       <c r="F197" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -5698,7 +5722,7 @@
       <c r="D198" s="14"/>
       <c r="E198" s="7"/>
       <c r="F198" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -5714,7 +5738,7 @@
       <c r="D199" s="14"/>
       <c r="E199" s="7"/>
       <c r="F199" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -5730,7 +5754,7 @@
       <c r="D200" s="14"/>
       <c r="E200" s="7"/>
       <c r="F200" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -5746,7 +5770,7 @@
       <c r="D201" s="14"/>
       <c r="E201" s="7"/>
       <c r="F201" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -5762,7 +5786,7 @@
       <c r="D202" s="14"/>
       <c r="E202" s="7"/>
       <c r="F202" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -5778,7 +5802,7 @@
       <c r="D203" s="14"/>
       <c r="E203" s="7"/>
       <c r="F203" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -5794,7 +5818,7 @@
       <c r="D204" s="14"/>
       <c r="E204" s="7"/>
       <c r="F204" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -5810,7 +5834,7 @@
       <c r="D205" s="14"/>
       <c r="E205" s="7"/>
       <c r="F205" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -5826,7 +5850,7 @@
       <c r="D206" s="14"/>
       <c r="E206" s="7"/>
       <c r="F206" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -5836,10 +5860,10 @@
       </c>
       <c r="C207" s="12"/>
       <c r="D207" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F207" s="7"/>
     </row>
@@ -5854,7 +5878,7 @@
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
       <c r="F208" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -5868,7 +5892,7 @@
       <c r="D209" s="14"/>
       <c r="E209" s="7"/>
       <c r="F209" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -5882,7 +5906,7 @@
       <c r="D210" s="14"/>
       <c r="E210" s="7"/>
       <c r="F210" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -5896,7 +5920,7 @@
       <c r="D211" s="14"/>
       <c r="E211" s="7"/>
       <c r="F211" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -5910,7 +5934,7 @@
       <c r="D212" s="14"/>
       <c r="E212" s="7"/>
       <c r="F212" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -5924,7 +5948,7 @@
       <c r="D213" s="14"/>
       <c r="E213" s="7"/>
       <c r="F213" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -5934,10 +5958,10 @@
       </c>
       <c r="C214" s="12"/>
       <c r="D214" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F214" s="7"/>
     </row>
@@ -5954,7 +5978,7 @@
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
       <c r="F215" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -5964,10 +5988,10 @@
       </c>
       <c r="C216" s="12"/>
       <c r="D216" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F216" s="7"/>
     </row>
@@ -5978,10 +6002,10 @@
       </c>
       <c r="C217" s="12"/>
       <c r="D217" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F217" s="7"/>
     </row>
@@ -5998,7 +6022,7 @@
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
       <c r="F218" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -6014,7 +6038,7 @@
       <c r="D219" s="14"/>
       <c r="E219" s="7"/>
       <c r="F219" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -6030,7 +6054,7 @@
       <c r="D220" s="14"/>
       <c r="E220" s="7"/>
       <c r="F220" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -6046,7 +6070,7 @@
       <c r="D221" s="14"/>
       <c r="E221" s="7"/>
       <c r="F221" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -6062,7 +6086,7 @@
       <c r="D222" s="14"/>
       <c r="E222" s="7"/>
       <c r="F222" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -6072,10 +6096,10 @@
       </c>
       <c r="C223" s="12"/>
       <c r="D223" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F223" s="7"/>
     </row>
@@ -6090,7 +6114,7 @@
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
       <c r="F224" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -6106,7 +6130,7 @@
       <c r="D225" s="14"/>
       <c r="E225" s="7"/>
       <c r="F225" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -6122,7 +6146,7 @@
       <c r="D226" s="14"/>
       <c r="E226" s="7"/>
       <c r="F226" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -6138,7 +6162,7 @@
       <c r="D227" s="14"/>
       <c r="E227" s="7"/>
       <c r="F227" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -6154,7 +6178,7 @@
       <c r="D228" s="14"/>
       <c r="E228" s="7"/>
       <c r="F228" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -6170,7 +6194,7 @@
       <c r="D229" s="14"/>
       <c r="E229" s="7"/>
       <c r="F229" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -6186,7 +6210,7 @@
       <c r="D230" s="14"/>
       <c r="E230" s="7"/>
       <c r="F230" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -6200,7 +6224,7 @@
       <c r="D231" s="14"/>
       <c r="E231" s="7"/>
       <c r="F231" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -6209,12 +6233,12 @@
         <v>4</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
       <c r="F232" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -6225,12 +6249,12 @@
         <v>5</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D233" s="14"/>
       <c r="E233" s="7"/>
       <c r="F233" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -6241,12 +6265,12 @@
         <v>5</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D234" s="14"/>
       <c r="E234" s="7"/>
       <c r="F234" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -6256,10 +6280,10 @@
       </c>
       <c r="C235" s="12"/>
       <c r="D235" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F235" s="7"/>
     </row>
@@ -6268,7 +6292,9 @@
       <c r="B236" s="24">
         <v>4</v>
       </c>
-      <c r="C236" s="12"/>
+      <c r="C236" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
       <c r="F236" s="7" t="s">
@@ -6288,7 +6314,7 @@
       <c r="D237" s="14"/>
       <c r="E237" s="7"/>
       <c r="F237" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -6304,7 +6330,7 @@
       <c r="D238" s="14"/>
       <c r="E238" s="7"/>
       <c r="F238" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -6314,10 +6340,10 @@
       </c>
       <c r="C239" s="12"/>
       <c r="D239" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F239" s="7"/>
     </row>
@@ -6328,10 +6354,10 @@
       </c>
       <c r="C240" s="12"/>
       <c r="D240" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F240" s="7"/>
     </row>
@@ -6342,10 +6368,10 @@
       </c>
       <c r="C241" s="12"/>
       <c r="D241" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F241" s="7"/>
     </row>
@@ -6357,12 +6383,12 @@
         <v>5</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D242" s="14"/>
       <c r="E242" s="7"/>
       <c r="F242" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
@@ -6373,12 +6399,12 @@
         <v>6</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D243" s="14"/>
       <c r="E243" s="7"/>
       <c r="F243" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
@@ -6389,12 +6415,12 @@
         <v>6</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D244" s="14"/>
       <c r="E244" s="7"/>
       <c r="F244" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
@@ -6405,12 +6431,12 @@
         <v>6</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D245" s="14"/>
       <c r="E245" s="7"/>
       <c r="F245" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
@@ -6419,12 +6445,12 @@
         <v>6</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D246" s="14"/>
       <c r="E246" s="7"/>
       <c r="F246" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -6435,12 +6461,12 @@
         <v>7</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D247" s="14"/>
       <c r="E247" s="7"/>
       <c r="F247" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
@@ -6451,12 +6477,12 @@
         <v>7</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D248" s="14"/>
       <c r="E248" s="7"/>
       <c r="F248" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -6466,10 +6492,10 @@
       </c>
       <c r="C249" s="12"/>
       <c r="D249" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E249" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F249" s="7"/>
     </row>
@@ -6479,7 +6505,7 @@
         <v>5</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D250" s="14"/>
       <c r="E250" s="7"/>
@@ -6491,12 +6517,12 @@
         <v>6</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D251" s="14"/>
       <c r="E251" s="7"/>
       <c r="F251" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -6507,12 +6533,12 @@
         <v>7</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D252" s="14"/>
       <c r="E252" s="7"/>
       <c r="F252" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -6523,12 +6549,12 @@
         <v>8</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D253" s="14"/>
       <c r="E253" s="7"/>
       <c r="F253" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -6539,12 +6565,12 @@
         <v>8</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D254" s="14"/>
       <c r="E254" s="7"/>
       <c r="F254" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
@@ -6555,12 +6581,12 @@
         <v>7</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D255" s="14"/>
       <c r="E255" s="7"/>
       <c r="F255" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -6569,12 +6595,12 @@
         <v>6</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D256" s="14"/>
       <c r="E256" s="7"/>
       <c r="F256" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -6585,12 +6611,12 @@
         <v>7</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D257" s="14"/>
       <c r="E257" s="7"/>
       <c r="F257" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
@@ -6601,12 +6627,12 @@
         <v>7</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D258" s="14"/>
       <c r="E258" s="7"/>
       <c r="F258" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -6615,12 +6641,12 @@
         <v>6</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D259" s="14"/>
       <c r="E259" s="7"/>
       <c r="F259" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
@@ -6629,12 +6655,12 @@
         <v>7</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D260" s="14"/>
       <c r="E260" s="7"/>
       <c r="F260" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
@@ -6645,12 +6671,12 @@
         <v>8</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D261" s="14"/>
       <c r="E261" s="7"/>
       <c r="F261" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
@@ -6661,12 +6687,12 @@
         <v>8</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D262" s="14"/>
       <c r="E262" s="7"/>
       <c r="F262" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
@@ -6677,12 +6703,12 @@
         <v>7</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D263" s="14"/>
       <c r="E263" s="7"/>
       <c r="F263" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
@@ -6692,10 +6718,10 @@
       </c>
       <c r="C264" s="12"/>
       <c r="D264" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F264" s="7"/>
     </row>
@@ -6705,7 +6731,7 @@
         <v>5</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D265" s="14"/>
       <c r="E265" s="7"/>
@@ -6721,12 +6747,12 @@
         <v>6</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D266" s="14"/>
       <c r="E266" s="7"/>
       <c r="F266" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
@@ -6737,12 +6763,12 @@
         <v>6</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D267" s="14"/>
       <c r="E267" s="7"/>
       <c r="F267" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
@@ -6752,10 +6778,10 @@
       </c>
       <c r="C268" s="12"/>
       <c r="D268" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E268" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F268" s="7"/>
     </row>
@@ -6766,10 +6792,10 @@
       </c>
       <c r="C269" s="12"/>
       <c r="D269" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E269" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F269" s="7"/>
     </row>
@@ -6781,12 +6807,12 @@
         <v>5</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D270" s="14"/>
       <c r="E270" s="7"/>
       <c r="F270" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
@@ -6795,12 +6821,12 @@
         <v>6</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D271" s="14"/>
       <c r="E271" s="7"/>
       <c r="F271" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
@@ -6811,12 +6837,12 @@
         <v>7</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D272" s="14"/>
       <c r="E272" s="7"/>
       <c r="F272" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
@@ -6827,12 +6853,12 @@
         <v>7</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D273" s="14"/>
       <c r="E273" s="7"/>
       <c r="F273" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
@@ -6843,12 +6869,12 @@
         <v>6</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D274" s="14"/>
       <c r="E274" s="7"/>
       <c r="F274" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
@@ -6858,10 +6884,10 @@
       </c>
       <c r="C275" s="12"/>
       <c r="D275" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E275" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F275" s="7"/>
     </row>
@@ -6873,12 +6899,12 @@
         <v>5</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D276" s="14"/>
       <c r="E276" s="7"/>
       <c r="F276" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
@@ -6889,12 +6915,12 @@
         <v>6</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D277" s="14"/>
       <c r="E277" s="7"/>
       <c r="F277" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
@@ -6905,12 +6931,12 @@
         <v>6</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D278" s="14"/>
       <c r="E278" s="7"/>
       <c r="F278" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
@@ -6921,12 +6947,12 @@
         <v>6</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D279" s="14"/>
       <c r="E279" s="7"/>
       <c r="F279" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
@@ -6935,12 +6961,12 @@
         <v>5</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D280" s="14"/>
       <c r="E280" s="7"/>
       <c r="F280" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
@@ -6951,12 +6977,12 @@
         <v>6</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D281" s="14"/>
       <c r="E281" s="7"/>
       <c r="F281" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
@@ -6967,12 +6993,12 @@
         <v>6</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D282" s="14"/>
       <c r="E282" s="7"/>
       <c r="F282" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
@@ -6983,12 +7009,12 @@
         <v>6</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D283" s="14"/>
       <c r="E283" s="7"/>
       <c r="F283" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
@@ -6997,12 +7023,12 @@
         <v>5</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D284" s="14"/>
       <c r="E284" s="7"/>
       <c r="F284" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
@@ -7013,12 +7039,12 @@
         <v>6</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D285" s="14"/>
       <c r="E285" s="7"/>
       <c r="F285" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
@@ -7029,12 +7055,12 @@
         <v>6</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D286" s="14"/>
       <c r="E286" s="7"/>
       <c r="F286" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
@@ -7044,10 +7070,10 @@
       </c>
       <c r="C287" s="12"/>
       <c r="D287" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E287" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F287" s="7"/>
     </row>
@@ -7059,12 +7085,12 @@
         <v>5</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
       <c r="F288" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
@@ -7074,10 +7100,10 @@
       </c>
       <c r="C289" s="12"/>
       <c r="D289" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F289" s="7"/>
     </row>
@@ -7087,7 +7113,7 @@
         <v>5</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
@@ -7103,12 +7129,12 @@
         <v>6</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
       <c r="F291" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
@@ -7119,12 +7145,12 @@
         <v>6</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
       <c r="F292" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
@@ -7135,12 +7161,12 @@
         <v>7</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
       <c r="F293" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
@@ -7151,12 +7177,12 @@
         <v>7</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
       <c r="F294" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
@@ -7167,12 +7193,12 @@
         <v>6</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
       <c r="F295" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
@@ -7183,12 +7209,12 @@
         <v>6</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
       <c r="F296" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
@@ -7198,10 +7224,10 @@
       </c>
       <c r="C297" s="12"/>
       <c r="D297" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E297" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F297" s="7"/>
     </row>
@@ -7212,10 +7238,10 @@
       </c>
       <c r="C298" s="12"/>
       <c r="D298" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E298" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="E298" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="F298" s="7"/>
     </row>
@@ -7225,12 +7251,12 @@
         <v>5</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
       <c r="F299" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
@@ -7241,12 +7267,12 @@
         <v>6</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
       <c r="F300" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
@@ -7257,12 +7283,12 @@
         <v>6</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
       <c r="F301" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
@@ -7273,12 +7299,12 @@
         <v>6</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
       <c r="F302" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
@@ -7289,12 +7315,12 @@
         <v>7</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
       <c r="F303" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
@@ -7305,12 +7331,12 @@
         <v>7</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
       <c r="F304" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
@@ -7320,10 +7346,10 @@
       </c>
       <c r="C305" s="12"/>
       <c r="D305" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E305" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F305" s="7"/>
     </row>
@@ -7338,7 +7364,7 @@
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
       <c r="F306" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
@@ -7354,7 +7380,7 @@
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
       <c r="F307" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
@@ -7370,7 +7396,7 @@
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
       <c r="F308" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
@@ -7386,7 +7412,7 @@
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
       <c r="F309" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
@@ -7402,7 +7428,7 @@
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
       <c r="F310" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
@@ -7418,7 +7444,7 @@
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
       <c r="F311" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
@@ -7434,7 +7460,7 @@
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
       <c r="F312" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
@@ -7450,7 +7476,7 @@
       <c r="D313" s="7"/>
       <c r="E313" s="7"/>
       <c r="F313" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
@@ -7464,7 +7490,7 @@
       <c r="D314" s="7"/>
       <c r="E314" s="7"/>
       <c r="F314" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
@@ -7480,7 +7506,7 @@
       <c r="D315" s="7"/>
       <c r="E315" s="7"/>
       <c r="F315" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
@@ -7496,7 +7522,7 @@
       <c r="D316" s="7"/>
       <c r="E316" s="7"/>
       <c r="F316" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
@@ -7505,12 +7531,12 @@
         <v>5</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D317" s="7"/>
       <c r="E317" s="7"/>
       <c r="F317" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
@@ -7521,12 +7547,12 @@
         <v>6</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D318" s="7"/>
       <c r="E318" s="7"/>
       <c r="F318" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
@@ -7537,12 +7563,12 @@
         <v>6</v>
       </c>
       <c r="C319" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D319" s="7"/>
       <c r="E319" s="7"/>
       <c r="F319" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
@@ -7552,10 +7578,10 @@
       </c>
       <c r="C320" s="12"/>
       <c r="D320" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E320" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F320" s="7"/>
     </row>
@@ -7572,7 +7598,7 @@
       <c r="D321" s="15"/>
       <c r="E321" s="7"/>
       <c r="F321" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
@@ -7582,10 +7608,10 @@
       </c>
       <c r="C322" s="12"/>
       <c r="D322" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E322" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F322" s="7"/>
     </row>
@@ -7596,10 +7622,10 @@
       </c>
       <c r="C323" s="12"/>
       <c r="D323" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E323" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F323" s="7"/>
     </row>
@@ -7616,7 +7642,7 @@
       <c r="D324" s="7"/>
       <c r="E324" s="7"/>
       <c r="F324" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
@@ -7625,12 +7651,12 @@
         <v>5</v>
       </c>
       <c r="C325" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D325" s="7"/>
       <c r="E325" s="7"/>
       <c r="F325" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
@@ -7639,12 +7665,12 @@
         <v>6</v>
       </c>
       <c r="C326" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D326" s="7"/>
       <c r="E326" s="7"/>
       <c r="F326" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
@@ -7655,12 +7681,12 @@
         <v>7</v>
       </c>
       <c r="C327" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D327" s="7"/>
       <c r="E327" s="7"/>
       <c r="F327" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
@@ -7671,12 +7697,12 @@
         <v>7</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D328" s="7"/>
       <c r="E328" s="7"/>
       <c r="F328" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
@@ -7687,12 +7713,12 @@
         <v>7</v>
       </c>
       <c r="C329" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D329" s="7"/>
       <c r="E329" s="7"/>
       <c r="F329" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
@@ -7701,12 +7727,12 @@
         <v>6</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D330" s="7"/>
       <c r="E330" s="7"/>
       <c r="F330" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
@@ -7717,12 +7743,12 @@
         <v>7</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
       <c r="F331" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
@@ -7733,12 +7759,12 @@
         <v>7</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D332" s="7"/>
       <c r="E332" s="7"/>
       <c r="F332" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
@@ -7748,10 +7774,10 @@
       </c>
       <c r="C333" s="12"/>
       <c r="D333" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E333" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F333" s="7"/>
     </row>
@@ -7761,12 +7787,12 @@
         <v>5</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D334" s="15"/>
       <c r="E334" s="7"/>
       <c r="F334" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
@@ -7777,12 +7803,12 @@
         <v>6</v>
       </c>
       <c r="C335" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D335" s="15"/>
       <c r="E335" s="7"/>
       <c r="F335" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
@@ -7791,12 +7817,12 @@
         <v>6</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D336" s="15"/>
       <c r="E336" s="7"/>
       <c r="F336" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
@@ -7807,12 +7833,12 @@
         <v>7</v>
       </c>
       <c r="C337" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D337" s="15"/>
       <c r="E337" s="7"/>
       <c r="F337" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
@@ -7823,12 +7849,12 @@
         <v>7</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D338" s="15"/>
       <c r="E338" s="7"/>
       <c r="F338" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
@@ -7837,12 +7863,12 @@
         <v>5</v>
       </c>
       <c r="C339" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D339" s="15"/>
       <c r="E339" s="7"/>
       <c r="F339" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="56" x14ac:dyDescent="0.2">
@@ -7853,12 +7879,12 @@
         <v>6</v>
       </c>
       <c r="C340" s="21" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D340" s="17"/>
       <c r="E340" s="9"/>
       <c r="F340" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
@@ -7869,12 +7895,12 @@
         <v>6</v>
       </c>
       <c r="C341" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D341" s="15"/>
       <c r="E341" s="7"/>
       <c r="F341" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
@@ -7885,12 +7911,12 @@
         <v>6</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D342" s="15"/>
       <c r="E342" s="7"/>
       <c r="F342" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
@@ -7900,10 +7926,10 @@
       </c>
       <c r="C343" s="12"/>
       <c r="D343" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E343" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F343" s="7"/>
     </row>
@@ -7915,12 +7941,12 @@
         <v>5</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D344" s="15"/>
       <c r="E344" s="15"/>
       <c r="F344" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
@@ -7930,10 +7956,10 @@
       </c>
       <c r="C345" s="12"/>
       <c r="D345" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E345" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F345" s="7"/>
     </row>
@@ -7945,12 +7971,12 @@
         <v>5</v>
       </c>
       <c r="C346" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D346" s="15"/>
       <c r="E346" s="15"/>
       <c r="F346" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
@@ -7961,12 +7987,12 @@
         <v>6</v>
       </c>
       <c r="C347" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D347" s="15"/>
       <c r="E347" s="15"/>
       <c r="F347" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
@@ -7977,12 +8003,12 @@
         <v>6</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D348" s="15"/>
       <c r="E348" s="15"/>
       <c r="F348" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
@@ -7993,12 +8019,12 @@
         <v>6</v>
       </c>
       <c r="C349" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D349" s="15"/>
       <c r="E349" s="15"/>
       <c r="F349" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
@@ -8009,12 +8035,12 @@
         <v>5</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D350" s="15"/>
       <c r="E350" s="15"/>
       <c r="F350" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
@@ -8027,7 +8053,7 @@
         <v>6</v>
       </c>
       <c r="E351" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F351" s="7"/>
     </row>
@@ -8040,7 +8066,7 @@
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
       <c r="F352" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
@@ -8052,7 +8078,7 @@
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
       <c r="F353" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
@@ -8064,7 +8090,7 @@
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
       <c r="F354" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="28" x14ac:dyDescent="0.2">
@@ -8076,7 +8102,7 @@
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
       <c r="F355" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="42" x14ac:dyDescent="0.2">
@@ -8088,7 +8114,7 @@
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
       <c r="F356" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
@@ -8100,7 +8126,7 @@
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
       <c r="F357" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
@@ -8112,7 +8138,7 @@
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
       <c r="F358" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
@@ -8124,7 +8150,7 @@
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
       <c r="F359" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="28" x14ac:dyDescent="0.2">
@@ -8136,7 +8162,7 @@
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
       <c r="F360" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
@@ -8148,7 +8174,7 @@
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
       <c r="F361" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
@@ -8158,10 +8184,10 @@
       </c>
       <c r="C362" s="12"/>
       <c r="D362" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E362" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F362" s="7"/>
     </row>
@@ -8174,7 +8200,7 @@
       <c r="D363" s="9"/>
       <c r="E363" s="9"/>
       <c r="F363" s="8" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="28" x14ac:dyDescent="0.2">
@@ -8186,7 +8212,7 @@
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
       <c r="F364" s="8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="42" x14ac:dyDescent="0.2">
@@ -8198,7 +8224,7 @@
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
       <c r="F365" s="8" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
@@ -8209,7 +8235,7 @@
       <c r="C366" s="12"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F366" s="8"/>
     </row>
@@ -8220,15 +8246,15 @@
       <c r="B367" s="24">
         <v>3</v>
       </c>
-      <c r="C367" s="12"/>
+      <c r="C367" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D367" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="E367" s="7">
-        <v>1</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="E367" s="7"/>
       <c r="F367" s="8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
@@ -8238,15 +8264,15 @@
       <c r="B368" s="24">
         <v>3</v>
       </c>
-      <c r="C368" s="12"/>
+      <c r="C368" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D368" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="E368" s="7">
-        <v>2</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="E368" s="7"/>
       <c r="F368" s="8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
@@ -8256,15 +8282,15 @@
       <c r="B369" s="24">
         <v>3</v>
       </c>
-      <c r="C369" s="12"/>
+      <c r="C369" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D369" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="E369" s="7">
-        <v>3</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="E369" s="7"/>
       <c r="F369" s="8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
@@ -8274,15 +8300,15 @@
       <c r="B370" s="24">
         <v>3</v>
       </c>
-      <c r="C370" s="12"/>
+      <c r="C370" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D370" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="E370" s="7">
-        <v>4</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="E370" s="7"/>
       <c r="F370" s="8" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
@@ -8292,15 +8318,15 @@
       <c r="B371" s="24">
         <v>3</v>
       </c>
-      <c r="C371" s="12"/>
+      <c r="C371" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D371" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="E371" s="7">
-        <v>5</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="E371" s="7"/>
       <c r="F371" s="8" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
@@ -8310,15 +8336,15 @@
       <c r="B372" s="24">
         <v>3</v>
       </c>
-      <c r="C372" s="21"/>
+      <c r="C372" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D372" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="E372" s="7">
-        <v>6</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="E372" s="7"/>
       <c r="F372" s="8" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
@@ -8328,15 +8354,15 @@
       <c r="B373" s="24">
         <v>3</v>
       </c>
-      <c r="C373" s="12"/>
+      <c r="C373" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D373" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="E373" s="7">
-        <v>7</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="E373" s="7"/>
       <c r="F373" s="8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
@@ -8346,15 +8372,15 @@
       <c r="B374" s="24">
         <v>3</v>
       </c>
-      <c r="C374" s="12"/>
+      <c r="C374" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D374" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="E374" s="7">
-        <v>8</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="E374" s="7"/>
       <c r="F374" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
@@ -8364,15 +8390,15 @@
       <c r="B375" s="24">
         <v>3</v>
       </c>
-      <c r="C375" s="12"/>
+      <c r="C375" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D375" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="E375" s="7">
-        <v>9</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="E375" s="7"/>
       <c r="F375" s="8" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
@@ -8382,15 +8408,15 @@
       <c r="B376" s="24">
         <v>3</v>
       </c>
-      <c r="C376" s="12"/>
+      <c r="C376" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D376" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="E376" s="7">
-        <v>10</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="E376" s="7"/>
       <c r="F376" s="8" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
@@ -8400,15 +8426,15 @@
       <c r="B377" s="24">
         <v>3</v>
       </c>
-      <c r="C377" s="12"/>
+      <c r="C377" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D377" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="E377" s="7">
-        <v>11</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="E377" s="7"/>
       <c r="F377" s="8" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
@@ -8418,15 +8444,15 @@
       <c r="B378" s="24">
         <v>3</v>
       </c>
-      <c r="C378" s="12"/>
+      <c r="C378" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D378" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="E378" s="7">
-        <v>12</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="E378" s="7"/>
       <c r="F378" s="8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
@@ -8436,15 +8462,15 @@
       <c r="B379" s="24">
         <v>3</v>
       </c>
-      <c r="C379" s="12"/>
+      <c r="C379" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D379" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="E379" s="7">
-        <v>13</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="E379" s="7"/>
       <c r="F379" s="8" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
@@ -8454,15 +8480,15 @@
       <c r="B380" s="24">
         <v>3</v>
       </c>
-      <c r="C380" s="12"/>
+      <c r="C380" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D380" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="E380" s="7">
-        <v>14</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="E380" s="7"/>
       <c r="F380" s="8" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
@@ -8472,15 +8498,15 @@
       <c r="B381" s="24">
         <v>3</v>
       </c>
-      <c r="C381" s="12"/>
+      <c r="C381" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D381" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="E381" s="7">
-        <v>15</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="E381" s="7"/>
       <c r="F381" s="8" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
@@ -8490,15 +8516,15 @@
       <c r="B382" s="24">
         <v>3</v>
       </c>
-      <c r="C382" s="12"/>
+      <c r="C382" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D382" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="E382" s="7">
-        <v>16</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="E382" s="7"/>
       <c r="F382" s="8" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
@@ -8508,15 +8534,15 @@
       <c r="B383" s="24">
         <v>3</v>
       </c>
-      <c r="C383" s="12"/>
+      <c r="C383" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D383" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="E383" s="7">
-        <v>17</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="E383" s="7"/>
       <c r="F383" s="8" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
@@ -8526,15 +8552,15 @@
       <c r="B384" s="24">
         <v>3</v>
       </c>
-      <c r="C384" s="12"/>
+      <c r="C384" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D384" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="E384" s="7">
-        <v>18</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="E384" s="7"/>
       <c r="F384" s="8" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
@@ -8544,15 +8570,15 @@
       <c r="B385" s="24">
         <v>3</v>
       </c>
-      <c r="C385" s="12"/>
+      <c r="C385" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D385" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="E385" s="7">
-        <v>19</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="E385" s="7"/>
       <c r="F385" s="8" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
@@ -8562,15 +8588,15 @@
       <c r="B386" s="24">
         <v>3</v>
       </c>
-      <c r="C386" s="12"/>
+      <c r="C386" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D386" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="E386" s="7">
-        <v>20</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="E386" s="7"/>
       <c r="F386" s="8" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
@@ -8580,15 +8606,15 @@
       <c r="B387" s="24">
         <v>3</v>
       </c>
-      <c r="C387" s="12"/>
+      <c r="C387" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D387" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="E387" s="7">
-        <v>21</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="E387" s="7"/>
       <c r="F387" s="8" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
@@ -8598,15 +8624,15 @@
       <c r="B388" s="24">
         <v>3</v>
       </c>
-      <c r="C388" s="12"/>
+      <c r="C388" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D388" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="E388" s="7">
-        <v>22</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="E388" s="7"/>
       <c r="F388" s="8" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
@@ -8616,15 +8642,15 @@
       <c r="B389" s="24">
         <v>3</v>
       </c>
-      <c r="C389" s="12"/>
+      <c r="C389" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D389" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="E389" s="7">
-        <v>23</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="E389" s="7"/>
       <c r="F389" s="8" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
@@ -8634,15 +8660,15 @@
       <c r="B390" s="24">
         <v>3</v>
       </c>
-      <c r="C390" s="12"/>
+      <c r="C390" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D390" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="E390" s="7">
-        <v>25</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="E390" s="7"/>
       <c r="F390" s="8" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
@@ -8652,15 +8678,15 @@
       <c r="B391" s="24">
         <v>3</v>
       </c>
-      <c r="C391" s="12"/>
+      <c r="C391" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D391" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="E391" s="7">
-        <v>26</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="E391" s="7"/>
       <c r="F391" s="8" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
@@ -8670,15 +8696,15 @@
       <c r="B392" s="24">
         <v>3</v>
       </c>
-      <c r="C392" s="12"/>
+      <c r="C392" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D392" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="E392" s="7">
-        <v>27</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="E392" s="7"/>
       <c r="F392" s="8" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
@@ -8688,15 +8714,15 @@
       <c r="B393" s="24">
         <v>3</v>
       </c>
-      <c r="C393" s="12"/>
+      <c r="C393" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D393" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="E393" s="7">
-        <v>28</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="E393" s="7"/>
       <c r="F393" s="8" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
@@ -8706,15 +8732,15 @@
       <c r="B394" s="24">
         <v>3</v>
       </c>
-      <c r="C394" s="12"/>
+      <c r="C394" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D394" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="E394" s="7">
-        <v>29</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="E394" s="7"/>
       <c r="F394" s="8" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
@@ -8724,15 +8750,15 @@
       <c r="B395" s="24">
         <v>3</v>
       </c>
-      <c r="C395" s="12"/>
+      <c r="C395" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D395" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="E395" s="7">
-        <v>30</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="E395" s="7"/>
       <c r="F395" s="8" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
@@ -8742,15 +8768,15 @@
       <c r="B396" s="24">
         <v>3</v>
       </c>
-      <c r="C396" s="12"/>
+      <c r="C396" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D396" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="E396" s="7">
-        <v>31</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="E396" s="7"/>
       <c r="F396" s="8" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
@@ -8760,15 +8786,15 @@
       <c r="B397" s="24">
         <v>3</v>
       </c>
-      <c r="C397" s="12"/>
+      <c r="C397" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D397" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="E397" s="7">
-        <v>32</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="E397" s="7"/>
       <c r="F397" s="8" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
@@ -8778,15 +8804,15 @@
       <c r="B398" s="24">
         <v>3</v>
       </c>
-      <c r="C398" s="12"/>
+      <c r="C398" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D398" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="E398" s="7">
-        <v>33</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="E398" s="7"/>
       <c r="F398" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
@@ -8796,15 +8822,15 @@
       <c r="B399" s="24">
         <v>3</v>
       </c>
-      <c r="C399" s="12"/>
+      <c r="C399" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D399" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="E399" s="7">
-        <v>34</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="E399" s="7"/>
       <c r="F399" s="8" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
@@ -8814,15 +8840,15 @@
       <c r="B400" s="24">
         <v>3</v>
       </c>
-      <c r="C400" s="12"/>
+      <c r="C400" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D400" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="E400" s="7">
-        <v>35</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="E400" s="7"/>
       <c r="F400" s="8" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
@@ -8832,15 +8858,15 @@
       <c r="B401" s="24">
         <v>3</v>
       </c>
-      <c r="C401" s="12"/>
+      <c r="C401" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D401" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="E401" s="7">
-        <v>36</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="E401" s="7"/>
       <c r="F401" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
@@ -8850,15 +8876,15 @@
       <c r="B402" s="24">
         <v>3</v>
       </c>
-      <c r="C402" s="12"/>
+      <c r="C402" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D402" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="E402" s="7">
-        <v>37</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="E402" s="7"/>
       <c r="F402" s="8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.2">
@@ -8868,15 +8894,15 @@
       <c r="B403" s="24">
         <v>3</v>
       </c>
-      <c r="C403" s="12"/>
+      <c r="C403" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="D403" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="E403" s="7">
-        <v>38</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="E403" s="7"/>
       <c r="F403" s="8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
@@ -8886,15 +8912,15 @@
       <c r="B404" s="24">
         <v>3</v>
       </c>
-      <c r="C404" s="12"/>
+      <c r="C404" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D404" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="E404" s="7">
-        <v>39</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="E404" s="7"/>
       <c r="F404" s="8" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
@@ -8904,15 +8930,15 @@
       <c r="B405" s="24">
         <v>3</v>
       </c>
-      <c r="C405" s="12"/>
+      <c r="C405" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D405" s="22" t="s">
-        <v>580</v>
-      </c>
-      <c r="E405" s="7">
-        <v>40</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="E405" s="7"/>
       <c r="F405" s="8" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
@@ -8922,7 +8948,7 @@
       </c>
       <c r="C406" s="12"/>
       <c r="D406" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F406" s="8"/>
     </row>
@@ -8934,10 +8960,10 @@
       <c r="C407" s="12"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F407" s="8" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
@@ -8948,10 +8974,10 @@
       <c r="C408" s="12"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F408" s="16" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
@@ -8962,10 +8988,10 @@
       <c r="C409" s="12"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F409" s="16" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
@@ -8976,10 +9002,10 @@
       <c r="C410" s="12"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F410" s="8" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
@@ -8990,10 +9016,10 @@
       <c r="C411" s="12"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F411" s="8" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
@@ -9004,10 +9030,10 @@
       <c r="C412" s="12"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F412" s="16" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
@@ -9018,10 +9044,10 @@
       <c r="C413" s="12"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F413" s="8" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
@@ -9032,10 +9058,10 @@
       <c r="C414" s="12"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F414" s="16" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
@@ -9046,10 +9072,10 @@
       <c r="C415" s="12"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F415" s="8" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
@@ -9060,10 +9086,10 @@
       <c r="C416" s="12"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F416" s="8" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
@@ -9074,10 +9100,10 @@
       <c r="C417" s="12"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F417" s="16" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
@@ -9088,10 +9114,10 @@
       <c r="C418" s="12"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F418" s="16" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
@@ -9102,10 +9128,10 @@
       <c r="C419" s="12"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F419" s="16" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
@@ -9116,10 +9142,10 @@
       <c r="C420" s="12"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F420" s="8" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.2">
@@ -9130,10 +9156,10 @@
       <c r="C421" s="12"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F421" s="8" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.2">
@@ -9144,10 +9170,10 @@
       <c r="C422" s="12"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F422" s="8" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
@@ -9158,10 +9184,10 @@
       <c r="C423" s="12"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F423" s="8" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.2">
@@ -9172,10 +9198,10 @@
       <c r="C424" s="12"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F424" s="8" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.2">
@@ -9186,10 +9212,10 @@
       <c r="C425" s="12"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F425" s="8" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.2">
@@ -9200,10 +9226,10 @@
       <c r="C426" s="12"/>
       <c r="D426" s="7"/>
       <c r="E426" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F426" s="8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.2">
@@ -9214,10 +9240,10 @@
       <c r="C427" s="12"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F427" s="16" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
@@ -9228,10 +9254,10 @@
       <c r="C428" s="12"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F428" s="8" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="28" x14ac:dyDescent="0.2">
@@ -9241,10 +9267,10 @@
       </c>
       <c r="C429" s="12"/>
       <c r="E429" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F429" s="16" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -9260,16 +9286,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="27"/>
     <col min="3" max="3" width="69.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
@@ -9280,8 +9307,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="27" t="s">
+        <v>583</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -9291,8 +9318,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="27" t="s">
+        <v>448</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -9302,8 +9329,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="27" t="s">
+        <v>139</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -9313,8 +9340,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="27" t="s">
+        <v>543</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
